--- a/data/trans_camb/CoTrAQ_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/CoTrAQ_R-Provincia-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-30.26863259706935</v>
+        <v>-28.74271453669379</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-34.82455311422176</v>
+        <v>-34.23351580863515</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-28.21676232125123</v>
+        <v>-28.8996626876386</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-3.889362219372525</v>
+        <v>-3.242873060566652</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-5.828199495905522</v>
+        <v>-5.34662891879297</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-8.87144725338112</v>
+        <v>-8.944466495284482</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4241788386307855</v>
+        <v>-0.41722453210449</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4701056575805501</v>
+        <v>-0.4753418365799189</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4131515955525876</v>
+        <v>-0.4137511924807231</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.06050798950791518</v>
+        <v>-0.05557583432196154</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.1024926472118396</v>
+        <v>-0.08805831963758531</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1528875059518475</v>
+        <v>-0.151381807131256</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-33.63431329235464</v>
+        <v>-34.32268343354114</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-28.45828272340479</v>
+        <v>-29.14483115558657</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-29.16077514446845</v>
+        <v>-28.90405649666626</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-13.98483330014944</v>
+        <v>-13.73386573166452</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-3.025591764066875</v>
+        <v>-2.779889063115784</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-13.5286836225144</v>
+        <v>-12.28998508242293</v>
       </c>
     </row>
     <row r="13">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4134130705553486</v>
+        <v>-0.423397207335094</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3875357041103464</v>
+        <v>-0.3949866959727755</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.376209977690894</v>
+        <v>-0.3781783184332108</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.1890096560729721</v>
+        <v>-0.1955917676835401</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.04855066171228054</v>
+        <v>-0.05138323401443244</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1917281054814585</v>
+        <v>-0.1767345248931766</v>
       </c>
     </row>
     <row r="16">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-39.35784285175035</v>
+        <v>-40.21029524394433</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-38.1853899300436</v>
+        <v>-37.39322457266457</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-35.99670522368633</v>
+        <v>-35.36383895883857</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-16.90082807080804</v>
+        <v>-16.68986425626264</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-6.813733496926535</v>
+        <v>-6.760409828330988</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-18.75690329991811</v>
+        <v>-18.05770968660159</v>
       </c>
     </row>
     <row r="19">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5214898085727591</v>
+        <v>-0.5410965567667172</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.517049204183149</v>
+        <v>-0.5132288696492509</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4891837544009087</v>
+        <v>-0.4772658331261878</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.2602634612004952</v>
+        <v>-0.2515496923283064</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1152534063929782</v>
+        <v>-0.1232777530537393</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.277277968436368</v>
+        <v>-0.2740304182933097</v>
       </c>
     </row>
     <row r="22">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-11.9035701502986</v>
+        <v>-10.57966803822848</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-16.17635638966997</v>
+        <v>-14.33584799091894</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-8.378584976511002</v>
+        <v>-8.778092198973093</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>11.64064764563058</v>
+        <v>12.44944173595103</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.55773546262634</v>
+        <v>14.72798888819374</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.476816224862002</v>
+        <v>8.862217854391091</v>
       </c>
     </row>
     <row r="25">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1531597663602286</v>
+        <v>-0.1370877482596798</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.219137651562612</v>
+        <v>-0.1919996360403442</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1132698438178429</v>
+        <v>-0.1172302090351017</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.176354422903736</v>
+        <v>0.1831606072537435</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.220356521627722</v>
+        <v>0.2493179963213335</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1434953756748559</v>
+        <v>0.1266493400782772</v>
       </c>
     </row>
     <row r="28">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-18.25973860160098</v>
+        <v>-17.92428130950839</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.042325036022107</v>
+        <v>-5.177060894058058</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-8.238415854022687</v>
+        <v>-7.005783175915549</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>12.15005860606146</v>
+        <v>14.18312755945672</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>34.64015383416756</v>
+        <v>33.44868561923019</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>16.86933754851829</v>
+        <v>16.80358100685294</v>
       </c>
     </row>
     <row r="31">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2609625933502643</v>
+        <v>-0.2653114998240875</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.06759013869398446</v>
+        <v>-0.1083606398118619</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1405262017923369</v>
+        <v>-0.1227771522258454</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2222049827773325</v>
+        <v>0.2609257880002163</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.313478982940099</v>
+        <v>1.204494447292223</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3834505413427753</v>
+        <v>0.3648029639858181</v>
       </c>
     </row>
     <row r="34">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-39.52687540669583</v>
+        <v>-38.84205477102587</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-56.96663214667566</v>
+        <v>-57.75416137711719</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-41.51325827644324</v>
+        <v>-42.48199260143063</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-14.24108381273757</v>
+        <v>-13.43506202048478</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-26.6883403136584</v>
+        <v>-25.63835292606944</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-21.67593454507685</v>
+        <v>-22.56573544961064</v>
       </c>
     </row>
     <row r="37">
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4947053580730533</v>
+        <v>-0.4994335362487011</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.6885555936254856</v>
+        <v>-0.6938761150987195</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.5257537989338944</v>
+        <v>-0.5369653677154748</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>-0.2082272099281356</v>
+        <v>-0.2022150167113283</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.3897782968077091</v>
+        <v>-0.376465305454836</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.3076551347015032</v>
+        <v>-0.3153459108639515</v>
       </c>
     </row>
     <row r="40">
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-41.23998594380306</v>
+        <v>-41.17117084181531</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-35.72402654268767</v>
+        <v>-35.67165887898416</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-36.57132299131982</v>
+        <v>-36.89504993341361</v>
       </c>
     </row>
     <row r="42">
@@ -1234,13 +1234,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-24.89461404951741</v>
+        <v>-25.59680316562208</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-17.31945643763687</v>
+        <v>-16.54210383007622</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-24.31446447505744</v>
+        <v>-24.59301502525422</v>
       </c>
     </row>
     <row r="43">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.5616967878133714</v>
+        <v>-0.5662529901069909</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.5499183886132969</v>
+        <v>-0.5430147369635264</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.5370273855935369</v>
+        <v>-0.5387131660480105</v>
       </c>
     </row>
     <row r="45">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.3802345205710196</v>
+        <v>-0.3903208115023965</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.3230311877808633</v>
+        <v>-0.3015689271668137</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.3910853158882406</v>
+        <v>-0.3981996146077551</v>
       </c>
     </row>
     <row r="46">
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.098934991826672</v>
+        <v>-1.324271909586606</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-7.968408313301873</v>
+        <v>-8.495354360115179</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-2.297666793133301</v>
+        <v>-2.324192750068138</v>
       </c>
     </row>
     <row r="48">
@@ -1340,13 +1340,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>12.70375893875035</v>
+        <v>12.34813539599596</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>9.300194963560468</v>
+        <v>8.919553353054772</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>8.944184632523346</v>
+        <v>9.13037645282405</v>
       </c>
     </row>
     <row r="49">
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.01466442304862073</v>
+        <v>-0.01582275982839101</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.1109356492866046</v>
+        <v>-0.1187344030429665</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.0333076635108213</v>
+        <v>-0.03278284129493347</v>
       </c>
     </row>
     <row r="51">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.1892479449945203</v>
+        <v>0.1839735583309214</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.1481685121961411</v>
+        <v>0.1399439038489301</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.1326165853620511</v>
+        <v>0.1376954877961722</v>
       </c>
     </row>
     <row r="52">
@@ -1429,13 +1429,13 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-20.44274103449042</v>
+        <v>-20.55559632666799</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-20.16852866754985</v>
+        <v>-20.51610766674411</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-19.3166428355919</v>
+        <v>-19.19071620378395</v>
       </c>
     </row>
     <row r="54">
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-13.21909668842669</v>
+        <v>-12.93771296249948</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-11.12586961736011</v>
+        <v>-10.95590002037891</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-13.54890169929824</v>
+        <v>-13.65168615046579</v>
       </c>
     </row>
     <row r="55">
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.2795441931569492</v>
+        <v>-0.2847304397210287</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.2990697708534423</v>
+        <v>-0.3041639405259913</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.2749702804217938</v>
+        <v>-0.2729048137656268</v>
       </c>
     </row>
     <row r="57">
@@ -1497,13 +1497,13 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>-0.188983395451946</v>
+        <v>-0.1869172092367919</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.1754078738069091</v>
+        <v>-0.1727550714991882</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.2000983801488108</v>
+        <v>-0.2015528401626942</v>
       </c>
     </row>
     <row r="58">
